--- a/static/data/python/sample exams/Cooper/Cooper_exam_sample_014.xlsx
+++ b/static/data/python/sample exams/Cooper/Cooper_exam_sample_014.xlsx
@@ -31,339 +31,339 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295037EK3.02) Knowledge of the reasons for the following responses or actions as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.5 / 41.7 / 45.6) Boron injection</t>
-  </si>
-  <si>
-    <t>(295005AA1.05) Ability to operate and/or monitor the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.7 / 45.6) Reactor/turbine pressure regulating system</t>
-  </si>
-  <si>
-    <t>(295027EK2.03) Knowledge of the relationship between the (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) and the following systems or components: (CFR: 41.7 / 45.8) Containment ventilation/cooling</t>
-  </si>
-  <si>
-    <t>(295003AK1.08) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER:(CFR: 41.8 to 41.10) Emergency diesel generator load limits</t>
-  </si>
-  <si>
-    <t>(295030EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Drywell/suppression chamber differential pressure (Mark I, II)</t>
-  </si>
-  <si>
-    <t>(295025) (EPE 2) HIGH REACTOR PRESSURE (G2.4.50) EMERGENCY PROCEDURES / PLAN Ability to verify system alarm setpoints and operate controls identified in the alarm response procedure (CFR: 41.10 / 43.5 / 45.3)</t>
-  </si>
-  <si>
-    <t>(700000AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Reactor and turbine trip criteria</t>
-  </si>
-  <si>
-    <t>(295024EA1.17) Ability to operate and/or monitor the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.7 / 45.6) Containment spray</t>
-  </si>
-  <si>
-    <t>(295006AK2.05) Knowledge of the relationship between the (APE 6) SCRAM and the following systems or components: (CFR: 41.7 / 45.8) CRD mechanism</t>
-  </si>
-  <si>
-    <t>(295004AK1.05) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER:(CFR: 41.8 to 41.10) Loss of breaker protection</t>
-  </si>
-  <si>
-    <t>(295021AA2.04) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Reactor water temperature</t>
-  </si>
-  <si>
-    <t>(295001) (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION (G2.4.43) EMERGENCY PROCEDURES / PLAN Knowledge of emergency communications systems and techniques (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295038EK3.06) Knowledge of the reasons for the following responses or actions as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.5 / 45.6) Elevated vs. ground level release</t>
-  </si>
-  <si>
-    <t>(295023AA1.07) Ability to operate and/or monitor the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.7 / 45.6) SGTS/FRVS</t>
-  </si>
-  <si>
-    <t>(600000AK2.05) Knowledge of the relationship between the (APE 24) PLANT FIRE ON SITE and the following systems or components: (CFR: 41.7 / 45.7) Fire alarm panels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295019AA1.03) Ability to operate and/or monitor the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.7 / 45.6) Air compressors </t>
-  </si>
-  <si>
-    <t>(295031EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Adequate core cooling</t>
-  </si>
-  <si>
-    <t>(295026) (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE (G2.2.43) EQUIPMENT CONTROL Knowledge of the process used to track inoperable alarms (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295016AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.5 / 45.6) Disabling/transferring control room controls</t>
-  </si>
-  <si>
-    <t>(295018AA1.07) Ability to operate and/or monitor the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.7 / 45.6) Fuel pool cooling and cleanup system</t>
-  </si>
-  <si>
-    <t>(295008AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 8) HIGH REACTOR WATER LEVEL: (CFR: 41.8 to 41.10) Feed flow/steam flow mismatch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295033EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.10 / 43.5 / 45.13) Area radiation levels </t>
-  </si>
-  <si>
-    <t>(295022) (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS (G2.4.46) EMERGENCY PROCEDURES / PLAN Ability to verify that the alarms are consistent with the plant conditions (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295032EK3.01) Knowledge of the reasons for the following responses or actions as they apply to (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.5 / 45.6) RPV emergency/normal depressurization</t>
-  </si>
-  <si>
-    <t>(295010AA1.09) Ability to operate and/or monitor the following as they apply to (APE 10) HIGH DRYWELL PRESSURE: (CFR: 41.7 / 45.6) Plant ventilation systems</t>
-  </si>
-  <si>
-    <t>(295029EK2.08) Knowledge of the relationship between the (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) Drywell/suppression chamber ventilation</t>
-  </si>
-  <si>
-    <t>(205000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE): (CFR: 41.5 / 45.3) Valve operation</t>
-  </si>
-  <si>
-    <t>(400000K6.12) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM : (CFR: 41.7 / 45.7) Reactor water cleanup system</t>
-  </si>
-  <si>
-    <t>(217000K4.10) Knowledge of (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) design features and/or interlocks that provide for the following: (CFR: 41.7) System isolation</t>
-  </si>
-  <si>
-    <t>(510000) (SF4 SWS*) SERVICE WATER SYSTEM (G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
-  </si>
-  <si>
-    <t>(261000K3.06) Knowledge of the effect that a loss or malfunction of the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Primary containment oxygen content (Mark I and II)</t>
-  </si>
-  <si>
-    <t>(262002A3.01) Ability to monitor automatic operation of the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) including: (CFR: 41.7 / 45.7) Transfer of power sources</t>
-  </si>
-  <si>
-    <t>(209002A2.14) Ability to (a) predict the impacts of the following on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High suppression pool temperature</t>
-  </si>
-  <si>
-    <t>(223002A4.07) Ability to manually operate and/or monitor the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF in the control room: (CFR: 41.7 / 45.5 to 45.8) Reset of system initiations</t>
+    <t>(295003AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER:(CFR: 41.8 to 41.10) Battery capacity</t>
+  </si>
+  <si>
+    <t>(295026EA1.05) Ability to operate and/or monitor the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.7 / 45.6) RCIC</t>
+  </si>
+  <si>
+    <t>(295006AK3.05) Knowledge of the reasons for the following responses or actions as they apply to (APE 6) SCRAM: (CFR: 41.5 / 45.6) Direct turbine generator trip</t>
+  </si>
+  <si>
+    <t>(295024EA2.06) Ability to determine and/or interpret the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool temperature</t>
+  </si>
+  <si>
+    <t>(295025EK2.08) Knowledge of the relationship between the (EPE 2) HIGH REACTOR PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) Reactor/turbine pressure regulating system</t>
+  </si>
+  <si>
+    <t>(295037) (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN (G2.4.43) EMERGENCY PROCEDURES / PLAN Knowledge of emergency communications systems and techniques (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295005AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 5) MAIN TURBINE GENERATOR TRIP:(CFR: 41.8 to 41.10) Reactor pressure control</t>
+  </si>
+  <si>
+    <t>(295031EA1.07) Ability to operate and/or monitor the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.7 / 45.6) Safety/relief valves</t>
+  </si>
+  <si>
+    <t>(295018AK3.05) Knowledge of the reasons for the following responses or actions as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.5 / 45.6) Placing the standby heat exchanger in service</t>
+  </si>
+  <si>
+    <t>(295027EA2.05) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
+  </si>
+  <si>
+    <t>(295001AK2.10) Knowledge of the relationship between the (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION and the following systems or components: (CFR: 41.7 / 45.8) Power range monitoring system</t>
+  </si>
+  <si>
+    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.4.50) EMERGENCY PROCEDURES / PLAN Ability to verify system alarm setpoints and operate controls identified in the alarm response procedure (CFR: 41.10 / 43.5 / 45.3)</t>
+  </si>
+  <si>
+    <t>(295038EK1.05) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.8 to 41.10) Exceeding limits for gaseous/liquid releases</t>
+  </si>
+  <si>
+    <t>(700000AA1.02) Ability to operate and/or monitor the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 41.10 / 45.5 / 45.7 / 45.8) Turbine/generator controls</t>
+  </si>
+  <si>
+    <t>(295016AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.5 / 45.6) Abandonment criteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295019AA2.01) Ability to determine and/or interpret the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.10 / 43.5 / 45.13) Instrument air pressure </t>
+  </si>
+  <si>
+    <t>(295021AK2.07) Knowledge of the relationship between the (APE 21) LOSS OF SHUTDOWN COOLING and the following systems or components: (CFR: 41.7 / 45.8) Reactor recirculation</t>
+  </si>
+  <si>
+    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.4.26) EMERGENCY PROCEDURES / PLAN Knowledge of facility protection requirements, including fire brigade and portable firefighting equipment usage (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295023AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 23) REFUELING ACCIDENTS:(CFR: 41.8 to 41.10) Radiation exposure hazards</t>
+  </si>
+  <si>
+    <t>(600000AA1.06) Ability to operate and/or monitor the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.7 / 45.5 / 45.6) Fire alarm</t>
+  </si>
+  <si>
+    <t>(295032EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Area temperature</t>
+  </si>
+  <si>
+    <t>(295035EK2.01) Knowledge of the relationship between the (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) Secondary containment ventilation</t>
+  </si>
+  <si>
+    <t>(295017) (APE 17) ABNORMAL OFFSITE RELEASE RATE (G2.4.52) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan, emergency plan implementing procedures, emergency operating procedures, or severe accident guidelines (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295029EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL: (CFR: 41.8 to 41.10) Venting the suppression pool (Mark I containment)</t>
+  </si>
+  <si>
+    <t>(295034EA1.01) Ability to operate and/or monitor the following as they apply to (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION: (CFR: 41.7 / 45.6) Area radiation monitoring system</t>
+  </si>
+  <si>
+    <t>(295014AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 14) INADVERTENT REACTIVITY ADDITION: (CFR: 41.5 / 45.6) Changing recirculation flow</t>
+  </si>
+  <si>
+    <t>(212000A4.04) Ability to manually operate and/or monitor the (SF7 RPS) REACTOR PROTECTION SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Bypass SCRAM signals</t>
+  </si>
+  <si>
+    <t>(218000K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM: (CFR: 41.5 / 45.3) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(510000A3.02) Ability to monitor automatic operation of the (SF4 SWS*) SERVICE WATER SYSTEM including: (CFR: 41.7 / 45.5) Valve alignment</t>
+  </si>
+  <si>
+    <t>(262002A2.01) Ability to (a) predict the impacts of the following on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Abnormal voltage</t>
+  </si>
+  <si>
+    <t>(400000K3.18) Knowledge of the effect that a loss or malfunction of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Reactor feedwater system</t>
+  </si>
+  <si>
+    <t>(203000K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6): (CFR: 41.7 / 45.7) Keep fill</t>
+  </si>
+  <si>
+    <t>(209001K4.04) Knowledge of (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Line break detection</t>
+  </si>
+  <si>
+    <t>(262001) (SF6 AC) AC ELECTRICAL DISTRIBUTION (G2.1.30) CONDUCT OF OPERATIONS Ability to locate and operate components, including local controls (CFR: 41.7 / 45.7)</t>
+  </si>
+  <si>
+    <t>(264000K1.07) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Emergency core cooling systems</t>
+  </si>
+  <si>
+    <t>(300000A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 IA) INSTRUMENT AIR SYSTEM including: (CFR: 41.5 / 45.5) Service air pressure</t>
+  </si>
+  <si>
+    <t>(217000K2.04) (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) Knowledge of electrical power supplies to the following: (CFR: 41.7) Gland seal compressor (vacuum pump)</t>
+  </si>
+  <si>
+    <t>(209002A4.01) Ability to manually operate and/or monitor the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) HPCS pump</t>
+  </si>
+  <si>
+    <t>(215003K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM: (CFR: 41.5 / 45.3) Detector operation</t>
+  </si>
+  <si>
+    <t>(205000A3.01) Ability to monitor automatic operation of the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) including: (CFR: 41.7 / 45.7) Valve operation</t>
+  </si>
+  <si>
+    <t>(263000A2.02) Ability to (a) predict the impacts of the following on the (SF6 DC) DC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of ventilation during charging</t>
+  </si>
+  <si>
+    <t>(215005K3.06) Knowledge of the effect that a loss or malfunction of the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR will have on the following systems or system parameters: (CFR: 41.7 / 45.4) IRM system</t>
+  </si>
+  <si>
+    <t>(223002K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF : (CFR: 41.7 / 45.7) Process radiation monitoring system</t>
+  </si>
+  <si>
+    <t>(261000K4.03) Knowledge of (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Moisture removal</t>
+  </si>
+  <si>
+    <t>(259002) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM (291002K1.24) SENSORS AND DETECTORS (CFR: 41.7) (RADIATION DETECTION) Use of portable and personal radiation monitoring instruments</t>
+  </si>
+  <si>
+    <t>(215004K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) RMCS (BWR 2, 3, 4, 5)</t>
   </si>
   <si>
     <t>(239002A1.10) Ability to predict and/or monitor changes in parameters associated with operation of the (SF3 SRV) SAFETY RELIEF VALVES including: (CFR: 41.5 / 45.5) Drywell pressure</t>
   </si>
   <si>
-    <t>(300000K1.16) Knowledge of the physical connections and/or cause and effect relationships between the (SF8 IA) INSTRUMENT AIR SYSTEM and the following systems: (CFR: 41.4 / 41.5 / 41.7 to 41.9 / 45.6 / 45.8) Fuel pool cooling cleanup system</t>
-  </si>
-  <si>
-    <t>(211000K2.03) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Heater power</t>
-  </si>
-  <si>
-    <t>(264000K5.06) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET): (CFR: 41.5 / 45.3) Load sequencing</t>
-  </si>
-  <si>
-    <t>(263000K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 DC) DC ELECTRICAL DISTRIBUTION: (CFR: 41.7 / 45.7) Station blackout</t>
-  </si>
-  <si>
-    <t>(209001K4.09) Knowledge of (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Load sequencing</t>
-  </si>
-  <si>
-    <t>(212000) (SF7 RPS) REACTOR PROTECTION SYSTEM  (291004K1.06) PUMPS (CFR: 41.3) (CENTRIFUGAL) Need for net positive suction head (NPSH); effects of loss of suction</t>
-  </si>
-  <si>
-    <t>(262001K3.04) Knowledge of the effect that a loss or malfunction of the (SF6 AC) AC ELECTRICAL DISTRIBUTION will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Uninterruptible power supply system</t>
-  </si>
-  <si>
-    <t>(215003A3.04) Ability to monitor automatic operation of the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM including: (CFR: 41.7 / 45.7) Control rod block signals</t>
-  </si>
-  <si>
-    <t>(215005A2.11) Ability to (a) predict the impacts of the following on the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Recirculation vortex event</t>
-  </si>
-  <si>
-    <t>(259002A4.12) Ability to manually operate and/or monitor the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Instrument bypass switches</t>
-  </si>
-  <si>
-    <t>(203000A1.08) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) including: (CFR: 41.5 / 45.5) Emergency generator loading</t>
-  </si>
-  <si>
-    <t>(218000K1.06) Knowledge of the physical connections and/or cause and effect relationships between the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Safety/relief valves</t>
-  </si>
-  <si>
-    <t>(215004K2.03) (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Detector drive module control</t>
-  </si>
-  <si>
-    <t>(205000K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE): (CFR: 41.5 / 45.3) Decay heat removal</t>
-  </si>
-  <si>
-    <t>(400000K6.08) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM : (CFR: 41.7 / 45.7) Service water system</t>
-  </si>
-  <si>
-    <t>(217000K4.04) Knowledge of (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) design features and/or interlocks that provide for the following: (CFR: 41.7) Turbine trips</t>
-  </si>
-  <si>
-    <t>(510000) (SF4 SWS*) SERVICE WATER SYSTEM (G2.1.1) CONDUCT OF OPERATIONS Knowledge of conduct of operations requirements (CFR: 41.10 / 43.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(216000K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) PCIS/NSSSS</t>
-  </si>
-  <si>
-    <t>(230000K2.03) (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE Knowledge of electrical power supplies to the following: (CFR: 41.7) Control logic</t>
-  </si>
-  <si>
-    <t>(233000K5.08) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF9 FPCCU) FUEL POOL COOLING/CLEANUP: (CFR: 41.5 / 45.3) Interconnections with storage pools/pits</t>
-  </si>
-  <si>
-    <t>(245000K6.11) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS: (CFR: 41.7 / 45.7) Reactor SCRAM</t>
-  </si>
-  <si>
-    <t>(201001K4.03) Knowledge of (SF1 CRDH) CRD HYDRAULIC SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.2-3 / 41.6-7 / 41.10 / 41.12 / 45.1-6) Control rod drive mechanism cooling water flow</t>
-  </si>
-  <si>
-    <t>(234000) (SF8 FH) FUEL HANDLING (291003K1.06) CONTROLLERS AND POSITIONERS (CFR: 41.7) Function and characteristics of governors and other mechanical controllers</t>
-  </si>
-  <si>
-    <t>(204000K3.08) Knowledge of the effect that a loss or malfunction of the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Drywell pressure</t>
-  </si>
-  <si>
-    <t>(215001A3.03) Ability to monitor automatic operation of the (SF7 TIP) TRAVERSING IN CORE PROBE including: (CFR: 41.7 / 45.7) Valve operation (BWR 2, 3, 4, 5)</t>
-  </si>
-  <si>
-    <t>(202001A2.07) Ability to (a) predict the impacts of the following on the (SF1, SF4 RS) RECIRCULATION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Recirculation pump speed mismatch</t>
-  </si>
-  <si>
-    <t>(201005A4.03) Ability to manually operate and/or monitor the (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) in the control room: (CFR: 41.7 / 45.5 to 45.8) Back panel indicating lights</t>
-  </si>
-  <si>
-    <t>(290001A1.08) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 SC) SECONDARY CONTAINMENT including: (CFR: 41.5 / 45.5) Fuel building area temperature</t>
-  </si>
-  <si>
-    <t>(G2.1.3) CONDUCT OF OPERATIONS Knowledge of shift or short-term relief turnover practices (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.18) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise logs, records, status boards, and reports (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.18) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during shutdown operations, such as risk assessments and work prioritization (CFR: 41.10 / 43.5 / 45.13)</t>
+    <t>(211000K2.02) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Squib valves</t>
+  </si>
+  <si>
+    <t>(212000A4.14) Ability to manually operate and/or monitor the (SF7 RPS) REACTOR PROTECTION SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) System reset</t>
+  </si>
+  <si>
+    <t>(218000K5.05) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM: (CFR: 41.5 / 45.3) Suppression pool level</t>
+  </si>
+  <si>
+    <t>(510000A3.04) Ability to monitor automatic operation of the (SF4 SWS*) SERVICE WATER SYSTEM including: (CFR: 41.7 / 45.5) Strainer operation</t>
+  </si>
+  <si>
+    <t>(262002A2.03) Ability to (a) predict the impacts of the following on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Frequency malfunctions in the system</t>
+  </si>
+  <si>
+    <t>(239003A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) including: (CFR: 41.5 / 45.5) Status indicating lights and alarms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(290002K6.15) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF4 RVI) REACTOR VESSEL INTERNALS: (CFR: 41.7 / 45.7) Automatic depressurization system </t>
+  </si>
+  <si>
+    <t>(290001A4.12) Ability to manually operate and/or monitor the (SF5 SC) SECONDARY CONTAINMENT in the control room: (CFR: 41.7 / 45.5 to 45.8) Surveillance testing</t>
+  </si>
+  <si>
+    <t>(256000K5.10) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2 CDS) CONDENSATE SYSTEM: (CFR: 41.5 / 45.3) Air ejection operation</t>
+  </si>
+  <si>
+    <t>(230000A3.01) Ability to monitor automatic operation of the (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE including: (CFR: 41.7 / 45.7) Valve operation</t>
+  </si>
+  <si>
+    <t>(259001A2.02) Ability to (a) predict the impacts of the following on the (SF2 FWS) FEEDWATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Feedwater heater isolation</t>
+  </si>
+  <si>
+    <t>(290003K3.06) Knowledge of the effect that a loss or malfunction of the (SF9 CRV) CONTROL ROOM VENTILATION will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Control room radioactivity</t>
+  </si>
+  <si>
+    <t>(268000A2.04) Ability to (a) predict the impacts of the following on the (SF9 RW) RADWASTE SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Radiological release isolation valve failure</t>
+  </si>
+  <si>
+    <t>(216000K4.02) Knowledge of (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION design features and/or interlocks that provide for the following: (CFR: 41.7) Physical separation of sensors</t>
+  </si>
+  <si>
+    <t>(219000) (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE (G2.4.35) EMERGENCY PROCEDURES / PLAN Knowledge of nonlicensed operator responsibilities during an emergency (CFR: 41.10 / 43.1/ 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(241000K1.38) Knowledge of the physical connections and/or cause and effect relationships between the (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) PCIS/NSSSS</t>
+  </si>
+  <si>
+    <t>(G2.1.21) CONDUCT OF OPERATIONS Ability to verify that a copy of a controlled procedure is the proper revision (CFR: 41.10 / 45.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.14) CONDUCT OF OPERATIONS Knowledge of criteria or conditions that require plantwide announcements, such as pump starts, reactor trips, and mode changes (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.21) EQUIPMENT CONTROL Knowledge of pre- and post-maintenance operability requirements (CFR: 41.10 / 43.2)</t>
+  </si>
+  <si>
+    <t>(G2.2.22) EQUIPMENT CONTROL Knowledge of limiting conditions for operation and safety limits (CFR: 41.5 / 43.2 / 45.2)</t>
+  </si>
+  <si>
+    <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.5) EMERGENCY PROCEDURES / PLAN Knowledge of the organization of the operating procedures network for normal, abnormal, and emergency evolutions (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(292005K1.07) CONTROL RODS (CFR: 41.1) Define control rod worth, differential CRW, and integral control rod worth</t>
+  </si>
+  <si>
+    <t>(292006K1.12) FISSION PRODUCT POISONS (CFR: 41.1) Plot the curve and explain the reasoning for the reactivity insertion by Xenon-135 versus time for the following: --Reactor SCRAM</t>
+  </si>
+  <si>
+    <t>(292004K1.14) REACTIVITY COEFFICIENTS (CFR: 41.1) Compare the relative magnitudes of the temperature, Doppler, and void coefficients of reactivity</t>
+  </si>
+  <si>
+    <t>(293009K1.28) CORE THERMAL LIMITS (CFR: 41.14) (MCPR) Define fraction of limiting critical power ratio</t>
+  </si>
+  <si>
+    <t>(293010K1.04) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) State how the possibility of brittle fracture is minimized by operating limitations</t>
+  </si>
+  <si>
+    <t>(293003K1.23) STEAM (CFR: 41.14) Use saturated and superheated steam tables</t>
+  </si>
+  <si>
+    <t>(295003AA2.03) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) Battery status</t>
+  </si>
+  <si>
+    <t>(295026) (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE (G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
+  </si>
+  <si>
+    <t>(295006AA2.01) Ability to determine and/or interpret the following as they apply to (APE 6) SCRAM: (CFR: 41.10 / 43.5 / 45.13) Reactor power</t>
+  </si>
+  <si>
+    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.4.51) EMERGENCY PROCEDURES / PLAN Knowledge of emergency operating procedure exit conditions (e.g., emergency condition no longer exists or severe accident guideline entry is required) (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295025EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295037) (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN (G2.4.23) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing emergency operating procedures implementation (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295005AA2.05) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Reactor power</t>
+  </si>
+  <si>
+    <t>(295020AA2.02) Ability to determine and/or interpret the following as they apply to (APE 20) INADVERTENT CONTAINMENT ISOLATION: (CFR: 41.10 / 43.5 / 45.13) Drywell/containment temperature</t>
+  </si>
+  <si>
+    <t>(295011) (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.4.46) EMERGENCY PROCEDURES / PLAN Ability to verify that the alarms are consistent with the plant conditions (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
+  </si>
+  <si>
+    <t>(500000EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION: (CFR: 41.10 / 43.5 / 45.13) Hydrogen concentration limits for drywell</t>
+  </si>
+  <si>
+    <t>(400000A2.05) Ability to (a) predict the impacts of the following on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of service water system</t>
+  </si>
+  <si>
+    <t>(203000) (SF2, SF4 RHR/LPCI) RHR/LPCI:  INJECTION MODE (G2.1.3) CONDUCT OF OPERATIONS Knowledge of shift or short-term relief turnover practices (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(209001A2.12) Ability to (a) predict the impacts of the following on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Inadvertent system initiation</t>
+  </si>
+  <si>
+    <t>(262001) (SF6 AC) AC ELECTRICAL DISTRIBUTION (G2.1.17) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise verbal reports (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(264000A2.09) Ability to (a) predict the impacts of the following on the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of safety bus</t>
+  </si>
+  <si>
+    <t>(201005) (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (G2.1.37) CONDUCT OF OPERATIONS Knowledge of procedures, guidelines, or limitations associated with reactivity management (CFR: 41.1 / 41.5 / 41.10 / 43.6 / 45.6)</t>
+  </si>
+  <si>
+    <t>(239001A2.07) Ability to (a) predict the impacts of the following on the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Main steam area high temperature</t>
+  </si>
+  <si>
+    <t>(234000) (SF8 FH) FUEL HANDLING (G2.4.42) EMERGENCY PROCEDURES / PLAN Knowledge of emergency response facilities (CFR: 41.10 / 45.11)</t>
+  </si>
+  <si>
+    <t>(G2.1.32) CONDUCT OF OPERATIONS Ability to explain and apply system precautions, limitations, notes, or cautions (CFR: 41.10 / 43.2 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.15) CONDUCT OF OPERATIONS Knowledge of administrative requirements for temporary management direction, such as standing orders, night orders, or operations memoranda (CFR: 41.10 / 45.12)</t>
   </si>
   <si>
     <t>(G2.2.41) EQUIPMENT CONTROL Ability to obtain and interpret station electrical and mechanical drawings (reference potential) (CFR: 41.10 / 45.12 / 45.13)</t>
   </si>
   <si>
-    <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.31) EMERGENCY PROCEDURES / PLAN Knowledge of annunciator alarms, indications, or response procedures (CFR: 41.10 / 45.3)</t>
-  </si>
-  <si>
-    <t>(292002K1.14) NEUTRON LIFE CYCLE (CFR: 41.1) Evaluate change in shutdown margin due to changes in plant parameters</t>
-  </si>
-  <si>
-    <t>(292003K1.01) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Explain the concept of subcritical multiplication</t>
-  </si>
-  <si>
-    <t>(292006K1.14) FISSION PRODUCT POISONS (CFR: 41.1) Explain the process and reasons for the reactor operator to compensate for the time dependent behavior of xenon-135 concentration in the reactor</t>
-  </si>
-  <si>
-    <t>(293006K1.06) FLUID STATICS AND DYNAMICS (CFR: 41.14) Discuss methods of prevention of fluid/water hammer</t>
-  </si>
-  <si>
-    <t>(293003K1.23) STEAM (CFR: 41.14) Use saturated and superheated steam tables</t>
-  </si>
-  <si>
-    <t>(293009K1.07) CORE THERMAL LIMITS (CFR: 41.14) (LHGR) Explain the basis of the limiting condition of LHGR</t>
-  </si>
-  <si>
-    <t>(295037) (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN (G2.4.18) EMERGENCY PROCEDURES / PLAN Knowledge of the specific bases for emergency and abnormal operating procedures (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295005AA2.08) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Electrical distribution status</t>
-  </si>
-  <si>
-    <t>(295027) (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.1.36) CONDUCT OF OPERATIONS Knowledge of procedures and limitations involved in core alterations (CFR: 41.10 / 43.6 / 45.7)</t>
-  </si>
-  <si>
-    <t>(295003AA2.01) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) Partial or complete loss of AC power</t>
-  </si>
-  <si>
-    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.1.45) CONDUCT OF OPERATIONS Ability to identify and interpret diverse indications to validate the response of another indication (CFR: 41.7 / 43.5 / 45.4)</t>
-  </si>
-  <si>
-    <t>(295025EA2.06) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
-  </si>
-  <si>
-    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.1.42) CONDUCT OF OPERATIONS Knowledge of new and spent fuel movement procedures (SRO Only) (CFR: 43.7 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295035) (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE (G2.4.6) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures major action categories (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295007AA2.01) Ability to determine and/or interpret the following as they apply to (APE 7) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(295009) (APE 9) LOW REACTOR WATER LEVEL (G2.2.2) EQUIPMENT CONTROL Ability to manipulate the console controls as required to operate the facility between shutdown and designated power levels (CFR: 41.6 / 41.7 / 45.2)</t>
-  </si>
-  <si>
-    <t>(261000) (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM  (G2.4.29) EMERGENCY PROCEDURES / PLAN Knowledge of the emergency plan implementing procedures (CFR: 41.10 / 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(262002A2.03) Ability to (a) predict the impacts of the following on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Frequency malfunctions in the system</t>
-  </si>
-  <si>
-    <t>(209002) (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM  (G2.2.17) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during power operations, such as risk assessments, work prioritization, and coordination with the transmission system operator (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(223002A2.07) Ability to (a) predict the impacts of the following on the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Various process instrumentation failures</t>
-  </si>
-  <si>
-    <t>(239002) (SF3 SRV) SAFETY RELIEF VALVES (G2.1.14) CONDUCT OF OPERATIONS Knowledge of criteria or conditions that require plantwide announcements, such as pump starts, reactor trips, and mode changes (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(259001A2.09) Ability to (a) predict the impacts of the following on the (SF2 FWS) FEEDWATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) TDRFP steam inlet pressure flow</t>
-  </si>
-  <si>
-    <t>(290002) (SF4 RVI) REACTOR VESSEL INTERNALS (G2.1.15) CONDUCT OF OPERATIONS Knowledge of administrative requirements for temporary management direction, such as standing orders, night orders, or operations memoranda (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(241000A2.15) Ability to (a) predict the impacts of the following on the (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of main turbine speed feedback</t>
-  </si>
-  <si>
-    <t>(G2.1.4) CONDUCT OF OPERATIONS Knowledge of individual licensed operator responsibilities related to shift staffing, such as medical requirements, “no-solo” operation, maintenance of active license status, 10 CFR Part 55 (CFR: 41.10 / 43.2)</t>
-  </si>
-  <si>
-    <t>(G2.1.2) CONDUCT OF OPERATIONS Knowledge of operator responsibilities during any mode of plant operation (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.13) EQUIPMENT CONTROL Knowledge of tagging and clearance procedures (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.7) EQUIPMENT CONTROL Knowledge of the process for conducting infrequently performed tests or evolutions (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.6) RADIATION CONTROL Ability to approve liquid or gaseous release permits (CFR: 41.13 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.52) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan, emergency plan implementing procedures, emergency operating procedures, or severe accident guidelines (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.4.14) EMERGENCY PROCEDURES / PLAN Knowledge of general guidelines for emergency and abnormal operating procedures usage (CFR: 41.10 / 43.1 / 45.13)</t>
+    <t>(G2.2.23) EQUIPMENT CONTROL Ability to track technical specification limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.3) EMERGENCY PROCEDURES / PLAN Ability to identify post-accident instrumentation (CFR: 41.6 / 45.4)</t>
+  </si>
+  <si>
+    <t>(G2.4.17) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures terms and definitions (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>A1</t>
   </si>
   <si>
     <t>K3</t>
   </si>
   <si>
-    <t>A1</t>
+    <t>A2</t>
   </si>
   <si>
     <t>K2</t>
   </si>
   <si>
-    <t>K1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
     <t>G</t>
   </si>
   <si>
+    <t>A4</t>
+  </si>
+  <si>
     <t>K5</t>
   </si>
   <si>
+    <t>A3</t>
+  </si>
+  <si>
     <t>K6</t>
   </si>
   <si>
     <t>K4</t>
   </si>
   <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>295025</t>
+  </si>
+  <si>
     <t>295037</t>
   </si>
   <si>
     <t>295005</t>
   </si>
   <si>
+    <t>295031</t>
+  </si>
+  <si>
+    <t>295018</t>
+  </si>
+  <si>
     <t>295027</t>
   </si>
   <si>
-    <t>295003</t>
+    <t>295001</t>
   </si>
   <si>
     <t>295030</t>
   </si>
   <si>
-    <t>295025</t>
+    <t>295038</t>
   </si>
   <si>
     <t>700000</t>
   </si>
   <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>295006</t>
+    <t>295016</t>
+  </si>
+  <si>
+    <t>295019</t>
+  </si>
+  <si>
+    <t>295021</t>
   </si>
   <si>
     <t>295004</t>
   </si>
   <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>295038</t>
-  </si>
-  <si>
     <t>295023</t>
   </si>
   <si>
     <t>600000</t>
   </si>
   <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>295026</t>
-  </si>
-  <si>
-    <t>295016</t>
-  </si>
-  <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295008</t>
-  </si>
-  <si>
-    <t>295033</t>
-  </si>
-  <si>
-    <t>295022</t>
-  </si>
-  <si>
     <t>295032</t>
   </si>
   <si>
-    <t>295010</t>
+    <t>295035</t>
+  </si>
+  <si>
+    <t>295017</t>
   </si>
   <si>
     <t>295029</t>
   </si>
   <si>
+    <t>295034</t>
+  </si>
+  <si>
+    <t>295014</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
     <t>205000</t>
   </si>
   <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>510000</t>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>223002</t>
   </si>
   <si>
     <t>261000</t>
   </si>
   <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>223002</t>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>215004</t>
   </si>
   <si>
     <t>239002</t>
   </si>
   <si>
-    <t>300000</t>
-  </si>
-  <si>
     <t>211000</t>
   </si>
   <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>215004</t>
+    <t>239003</t>
+  </si>
+  <si>
+    <t>290002</t>
+  </si>
+  <si>
+    <t>290001</t>
+  </si>
+  <si>
+    <t>256000</t>
+  </si>
+  <si>
+    <t>230000</t>
+  </si>
+  <si>
+    <t>259001</t>
+  </si>
+  <si>
+    <t>290003</t>
+  </si>
+  <si>
+    <t>268000</t>
   </si>
   <si>
     <t>216000</t>
   </si>
   <si>
-    <t>230000</t>
-  </si>
-  <si>
-    <t>233000</t>
-  </si>
-  <si>
-    <t>245000</t>
-  </si>
-  <si>
-    <t>201001</t>
+    <t>219000</t>
+  </si>
+  <si>
+    <t>241000</t>
+  </si>
+  <si>
+    <t>292005</t>
+  </si>
+  <si>
+    <t>292006</t>
+  </si>
+  <si>
+    <t>292004</t>
+  </si>
+  <si>
+    <t>293009</t>
+  </si>
+  <si>
+    <t>293010</t>
+  </si>
+  <si>
+    <t>293003</t>
+  </si>
+  <si>
+    <t>295020</t>
+  </si>
+  <si>
+    <t>295011</t>
+  </si>
+  <si>
+    <t>500000</t>
+  </si>
+  <si>
+    <t>201005</t>
+  </si>
+  <si>
+    <t>239001</t>
   </si>
   <si>
     <t>234000</t>
-  </si>
-  <si>
-    <t>204000</t>
-  </si>
-  <si>
-    <t>215001</t>
-  </si>
-  <si>
-    <t>202001</t>
-  </si>
-  <si>
-    <t>201005</t>
-  </si>
-  <si>
-    <t>290001</t>
-  </si>
-  <si>
-    <t>292002</t>
-  </si>
-  <si>
-    <t>292003</t>
-  </si>
-  <si>
-    <t>292006</t>
-  </si>
-  <si>
-    <t>293006</t>
-  </si>
-  <si>
-    <t>293003</t>
-  </si>
-  <si>
-    <t>293009</t>
-  </si>
-  <si>
-    <t>295035</t>
-  </si>
-  <si>
-    <t>295007</t>
-  </si>
-  <si>
-    <t>295009</t>
-  </si>
-  <si>
-    <t>259001</t>
-  </si>
-  <si>
-    <t>290002</t>
-  </si>
-  <si>
-    <t>241000</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>4.9</v>
+        <v>3.5</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,7 +1426,7 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="D28" t="s">
         <v>111</v>
@@ -1443,7 +1443,7 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="D29" t="s">
         <v>112</v>
@@ -1460,7 +1460,7 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="D30" t="s">
         <v>113</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="D31" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="D32" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,7 +1511,7 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="D33" t="s">
         <v>114</v>
@@ -1531,7 +1531,7 @@
         <v>3.4</v>
       </c>
       <c r="D34" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="D35" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="D36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="D37" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="D38" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,7 +1613,7 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="D39" t="s">
         <v>111</v>
@@ -1630,7 +1630,7 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="D40" t="s">
         <v>112</v>
@@ -1647,7 +1647,7 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="D41" t="s">
         <v>113</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="D42" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="D43" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,7 +1698,7 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="D44" t="s">
         <v>114</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="D46" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="D47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="D48" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="D49" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,7 +1800,7 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D50" t="s">
         <v>111</v>
@@ -1834,7 +1834,7 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="D52" t="s">
         <v>113</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>4.1</v>
+        <v>2.7</v>
       </c>
       <c r="D54" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D55" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,7 +1902,7 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="D56" t="s">
         <v>111</v>
@@ -1919,7 +1919,7 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="D57" t="s">
         <v>112</v>
@@ -1936,7 +1936,7 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="D58" t="s">
         <v>113</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="D59" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="D60" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,7 +1987,7 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="D61" t="s">
         <v>114</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="D62" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="D63" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="D64" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="D77" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="D78" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="D79" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="D80" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2330,7 +2330,7 @@
         <v>4.3</v>
       </c>
       <c r="D81" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="D82" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="D83" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
       <c r="D84" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2398,7 +2398,7 @@
         <v>4.2</v>
       </c>
       <c r="D85" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="D86" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="D87" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="D88" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="D89" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="D90" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="D91" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>2.6</v>
+        <v>4.6</v>
       </c>
       <c r="D92" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="D93" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="D94" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2633,7 +2633,7 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D99" t="s">
         <v>119</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
